--- a/model_logiczny.xlsx
+++ b/model_logiczny.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\br\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-25\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D40FD360-E129-844A-8D27-8D03C6235426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996EE564-AB48-4CE8-93DA-0764E4D546EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="126">
   <si>
     <t>Krotność</t>
   </si>
@@ -305,16 +303,118 @@
     <t>item_id</t>
   </si>
   <si>
-    <t>cone_id</t>
-  </si>
-  <si>
     <t>cup_id</t>
   </si>
   <si>
-    <t>color_id</t>
-  </si>
-  <si>
-    <t>cups_id</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>flavor</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>portion_size</t>
+  </si>
+  <si>
+    <t>TABELE WALIDACYJNE</t>
+  </si>
+  <si>
+    <t>flavors</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>tabela walidacyjna</t>
+  </si>
+  <si>
+    <t>items_flavors</t>
+  </si>
+  <si>
+    <t>items_toppings</t>
+  </si>
+  <si>
+    <t>tabela lącząca</t>
+  </si>
+  <si>
+    <t>flavor_name</t>
+  </si>
+  <si>
+    <t>topping</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>cones_flavors</t>
+  </si>
+  <si>
+    <t>ice_cream_flavors</t>
+  </si>
+  <si>
+    <t>items_ice_cream_flavors</t>
+  </si>
+  <si>
+    <t>cones_types</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>order_id+items_id</t>
+  </si>
+  <si>
+    <t>name, rgb</t>
+  </si>
+  <si>
+    <t>cup_id+color</t>
+  </si>
+  <si>
+    <t>item_id+flavor</t>
+  </si>
+  <si>
+    <t>item_id+topping</t>
+  </si>
+  <si>
+    <t>varchar(7)</t>
+  </si>
+  <si>
+    <t>restrykcyjna</t>
+  </si>
+  <si>
+    <t>kaskadowa</t>
+  </si>
+  <si>
+    <t>w regule modyfikacji tam gdzie jest id dajemy kaskadowa</t>
   </si>
 </sst>
 </file>
@@ -346,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -406,11 +506,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -426,6 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,12 +547,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -487,9 +611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,9 +651,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,9 +686,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,9 +738,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,20 +931,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.29296875" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.23828125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,19 +952,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -815,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -826,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -837,7 +995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -846,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -857,18 +1015,60 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -882,300 +1082,480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.29296875" customWidth="1"/>
-    <col min="3" max="3" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.84765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.71484375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1191,37 +1571,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.65625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1253,11 +1633,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" t="s">
@@ -1280,11 +1662,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="K4" s="10" t="s">
@@ -1304,11 +1688,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="K5" s="10" t="s">
@@ -1328,7 +1714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1350,7 +1736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -1358,7 +1744,8 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1366,7 +1753,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1767,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1400,11 +1787,13 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="K11" s="8"/>
@@ -1414,23 +1803,31 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="K13" s="10" t="s">
@@ -1452,9 +1849,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="K14" s="10" t="s">
@@ -1474,7 +1875,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="K15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1492,13 +1901,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="K16" s="10" t="s">
         <v>63</v>
       </c>
@@ -1516,19 +1927,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="12"/>
       <c r="K17" s="10" t="s">
         <v>64</v>
       </c>
@@ -1546,13 +1947,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="K18" s="11" t="s">
         <v>65</v>
       </c>
@@ -1570,11 +1969,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="K19" s="11" t="s">
         <v>68</v>
       </c>
@@ -1592,11 +1991,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="K20" s="11" t="s">
         <v>70</v>
       </c>
@@ -1614,11 +2013,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -1626,7 +2025,11 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -1634,13 +2037,11 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -1648,19 +2049,11 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>8</v>
-      </c>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -1668,13 +2061,11 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -1682,25 +2073,27 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="K26" s="13" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="K26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="K27" s="10" t="s">
         <v>47</v>
       </c>
@@ -1720,11 +2113,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K28" s="10" t="s">
         <v>71</v>
       </c>
@@ -1742,7 +2143,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="K29" s="10" t="s">
         <v>73</v>
       </c>
@@ -1760,13 +2169,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>75</v>
       </c>
@@ -1784,19 +2195,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -1804,11 +2211,13 @@
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="K32" s="9"/>
@@ -1818,25 +2227,27 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="K33" s="13" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="K33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="15"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
       <c r="K34" s="10" t="s">
         <v>47</v>
       </c>
@@ -1856,11 +2267,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K35" s="10" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +2297,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="K36" s="10" t="s">
         <v>76</v>
       </c>
@@ -1896,7 +2323,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="K37" s="10" t="s">
         <v>67</v>
       </c>
@@ -1914,7 +2349,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
@@ -1922,13 +2365,11 @@
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -1936,35 +2377,27 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K40" s="13" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="K40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="15"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
       <c r="K41" s="10" t="s">
         <v>47</v>
       </c>
@@ -1984,10 +2417,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K42" s="10" t="s">
         <v>17</v>
       </c>
@@ -2005,9 +2447,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="K43" s="10" t="s">
@@ -2027,9 +2473,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="K44" s="10" t="s">
@@ -2049,11 +2499,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -2061,13 +2515,15 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -2075,35 +2531,25 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="13" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="K47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="15"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="K48" s="10" t="s">
         <v>47</v>
       </c>
@@ -2123,13 +2569,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="K49" s="10" t="s">
         <v>71</v>
       </c>
@@ -2147,11 +2591,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
       <c r="K50" s="10" t="s">
         <v>81</v>
       </c>
@@ -2169,25 +2615,485 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D99"/>
     <mergeCell ref="K47:P47"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="K26:P26"/>
-    <mergeCell ref="A30:D30"/>
     <mergeCell ref="K40:P40"/>
     <mergeCell ref="K33:P33"/>
   </mergeCells>
@@ -2202,72 +3108,188 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.25390625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
